--- a/biology/Botanique/Richard_Maack/Richard_Maack.xlsx
+++ b/biology/Botanique/Richard_Maack/Richard_Maack.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Otto Maack (en russe : Ричард Карлович Маак, Ritchard Karlovitch Maak), né le 4 septembre 1825 à Kuressaare et mort le 25 novembre 1886 à Saint-Pétersbourg, est un naturaliste, géographe et anthropologue russe.
-Il est surtout connu pour son exploration de l'Extrême-Orient russe et de la Sibérie[1], en particulier des vallées de l'Oussouri et de l'Amour[2]. Il a écrit quelques-unes des premières descriptions scientifiques de l'histoire naturelle de la Sibérie lointaine et a collecté de nombreux spécimens biologiques, dont beaucoup étaient des spécimens originaux d'espèces jusque-là inconnues[3].
+Il est surtout connu pour son exploration de l'Extrême-Orient russe et de la Sibérie, en particulier des vallées de l'Oussouri et de l'Amour. Il a écrit quelques-unes des premières descriptions scientifiques de l'histoire naturelle de la Sibérie lointaine et a collecté de nombreux spécimens biologiques, dont beaucoup étaient des spécimens originaux d'espèces jusque-là inconnues.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maack est né à Kuressaare, en Livonie[4]. Il étudie les sciences naturelles à l'Université de Saint-Pétersbourg. En 1852, il devient professeur de sciences naturelles au Gymnase d'Irkoutsk dont il sera plus tard le directeur. De 1868 à 1879, il est surintendant de toutes les écoles du nord de la Sibérie.
-Au cours des années 1850, il entreprend un certain nombre d'expéditions en Sibérie, notamment dans la vallée de l'Amour et la Iakoutie (1855–1856)[5] et de l'Oussouri (1859). Il a également participé à la première expédition de la Société géographique russe (1853-1855) pour décrire l' orographie, la géologie et la population des bassins des fleuves Viliouï[6] et Tchona[7],[8]
-On lui attribue la découverte de Syringa reticulata (en), simultanément et indépendamment de Carl Maximowicz[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maack est né à Kuressaare, en Livonie. Il étudie les sciences naturelles à l'Université de Saint-Pétersbourg. En 1852, il devient professeur de sciences naturelles au Gymnase d'Irkoutsk dont il sera plus tard le directeur. De 1868 à 1879, il est surintendant de toutes les écoles du nord de la Sibérie.
+Au cours des années 1850, il entreprend un certain nombre d'expéditions en Sibérie, notamment dans la vallée de l'Amour et la Iakoutie (1855–1856) et de l'Oussouri (1859). Il a également participé à la première expédition de la Société géographique russe (1853-1855) pour décrire l' orographie, la géologie et la population des bassins des fleuves Viliouï et Tchona,
+On lui attribue la découverte de Syringa reticulata (en), simultanément et indépendamment de Carl Maximowicz.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Plantes portant son nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maack est surtout connu pour avoir collecté des espèces jusque-là inconnues et renvoyé des spécimens pour des descriptions et des noms scientifiques. Un certain nombre de ceux qu'il a trouvés lors de son expédition sur le fleuve Amour portent son nom[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maack est surtout connu pour avoir collecté des espèces jusque-là inconnues et renvoyé des spécimens pour des descriptions et des noms scientifiques. Un certain nombre de ceux qu'il a trouvés lors de son expédition sur le fleuve Amour portent son nom.
 Maackia amurensis
 Lonicera maackii
 Prunus maackii
@@ -584,10 +600,12 @@
           <t>Animaux portant son nom</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Papilio maackii
-Pelodiscus maackii[11]</t>
+Pelodiscus maackii</t>
         </is>
       </c>
     </row>
